--- a/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FD7FDB-7722-4B73-BAF0-3D1C3B6EAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28DD8C3-529A-4826-95C9-8DE00B751CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A1877B0-F6D1-4445-BAA3-0C5A31A741A6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6B5CC94-D285-4E41-BC7F-121B176A670B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="142">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -293,181 +293,175 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>99,39%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
   </si>
   <si>
     <t>98,97%</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0BB9C7-8ECC-419F-9563-771B1DD55297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F759A9-F1CB-44CA-B9BE-1163967DCA20}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5651249-8455-4BFD-8214-B314D9C8CA3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1DC2FE-B89A-4D8E-A808-25FDF51F289F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2384,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B70FB-B0B2-420C-A9D3-446D618E817F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A3694-0CF8-46BC-8880-7E234FA78A6F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B94544-C7E9-4A8D-97A6-1F0D8E28767C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BE468-4A0A-4AF9-A5DB-37C6B16EA4B5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3417,10 +3411,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3429,13 +3423,13 @@
         <v>23933</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3444,13 +3438,13 @@
         <v>40670</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,28 +3459,28 @@
         <v>2145285</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>2885</v>
       </c>
       <c r="I8" s="7">
-        <v>2224863</v>
+        <v>2224862</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>4861</v>
@@ -3495,13 +3489,13 @@
         <v>4370147</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3569,13 +3563,13 @@
         <v>9512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3584,13 +3578,13 @@
         <v>11845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3599,13 +3593,13 @@
         <v>21357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3614,13 @@
         <v>663527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>986</v>
@@ -3635,13 +3629,13 @@
         <v>702041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>1658</v>
@@ -3650,13 +3644,13 @@
         <v>1365569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,10 +3721,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -3739,13 +3733,13 @@
         <v>53889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -3754,13 +3748,13 @@
         <v>89880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,10 +3772,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>5262</v>
@@ -3790,13 +3784,13 @@
         <v>3740361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>8588</v>
@@ -3805,13 +3799,13 @@
         <v>7079994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28DD8C3-529A-4826-95C9-8DE00B751CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA06CEBE-7D78-4BE2-8959-D534818E96CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6B5CC94-D285-4E41-BC7F-121B176A670B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6368D89C-A1C5-4DBA-B855-C8723230CB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -239,7 +239,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F759A9-F1CB-44CA-B9BE-1163967DCA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F84A1C4-002C-46D8-9F67-644A5BC19B1E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,7 +1233,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1284,7 +1284,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1627,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1DC2FE-B89A-4D8E-A808-25FDF51F289F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77ED38B-A42C-41E1-9FDA-61F9405FA166}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A3694-0CF8-46BC-8880-7E234FA78A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758E0C20-94ED-4ADA-9589-4A3EA2F6693D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BE468-4A0A-4AF9-A5DB-37C6B16EA4B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE407D76-A562-4E13-A8D0-372C91383543}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA06CEBE-7D78-4BE2-8959-D534818E96CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D7D1A6-7F51-41C6-BEFD-EB9A6F046AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6368D89C-A1C5-4DBA-B855-C8723230CB0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68DAEB38-5885-463D-A4DB-C26F2D0DD9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="144">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -293,31 +293,31 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>99,04%</t>
@@ -326,25 +326,28 @@
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -353,79 +356,88 @@
     <t>0,71%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -434,7 +446,7 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -443,25 +455,19 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>98,49%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
     <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
   </si>
   <si>
     <t>98,97%</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F84A1C4-002C-46D8-9F67-644A5BC19B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3798534-888F-4C94-80A5-3BCD39412952}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,7 +1239,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1284,7 +1290,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1627,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77ED38B-A42C-41E1-9FDA-61F9405FA166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E2669F-AF23-4986-8213-2AF0C2C850CF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,7 +2384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758E0C20-94ED-4ADA-9589-4A3EA2F6693D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE742654-3618-42EC-AEA6-870494F14F55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE407D76-A562-4E13-A8D0-372C91383543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A26A4-4A2D-4E52-9518-71028E95E4D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,10 +3417,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3423,13 +3429,13 @@
         <v>23933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3438,13 +3444,13 @@
         <v>40670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,28 +3465,28 @@
         <v>2145285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>2885</v>
       </c>
       <c r="I8" s="7">
-        <v>2224862</v>
+        <v>2224863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>4861</v>
@@ -3489,13 +3495,13 @@
         <v>4370147</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3528,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3563,13 +3569,13 @@
         <v>9512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3578,13 +3584,13 @@
         <v>11845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3593,13 +3599,13 @@
         <v>21357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3620,13 @@
         <v>663527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>986</v>
@@ -3629,13 +3635,13 @@
         <v>702041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1658</v>
@@ -3644,13 +3650,13 @@
         <v>1365569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3727,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -3733,13 +3739,13 @@
         <v>53889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -3748,13 +3754,13 @@
         <v>89880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3778,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>5262</v>
@@ -3784,13 +3790,13 @@
         <v>3740361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>8588</v>
@@ -3799,13 +3805,13 @@
         <v>7079994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D7D1A6-7F51-41C6-BEFD-EB9A6F046AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34675EFF-2B7F-4CF3-8291-A319C1F9B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68DAEB38-5885-463D-A4DB-C26F2D0DD9F1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{51AA6F88-8D52-47D7-96B6-FADD6C5A8A94}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -287,190 +287,190 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3798534-888F-4C94-80A5-3BCD39412952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0C639F-5AFD-4950-BE4A-5CD4FE8616C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1394,7 +1394,7 @@
         <v>567</v>
       </c>
       <c r="N11" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1445,7 +1445,7 @@
         <v>567</v>
       </c>
       <c r="N12" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1633,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E2669F-AF23-4986-8213-2AF0C2C850CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5284592-38B1-4A1B-99DE-5F8FD0D12024}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2384,7 +2384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE742654-3618-42EC-AEA6-870494F14F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289D5C7F-EF2A-4F6D-BFE0-A83CD5709525}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A26A4-4A2D-4E52-9518-71028E95E4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AD1D8A-0B92-4BA7-8C29-5777583F1857}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3256,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>10024</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>82</v>
@@ -3271,7 +3271,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>18111</v>
+        <v>16179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>85</v>
@@ -3286,7 +3286,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>27854</v>
+        <v>26203</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>88</v>
@@ -3307,7 +3307,7 @@
         <v>678</v>
       </c>
       <c r="D5" s="7">
-        <v>530820</v>
+        <v>503918</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>91</v>
@@ -3322,7 +3322,7 @@
         <v>1391</v>
       </c>
       <c r="I5" s="7">
-        <v>813457</v>
+        <v>735553</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>94</v>
@@ -3337,7 +3337,7 @@
         <v>2069</v>
       </c>
       <c r="N5" s="7">
-        <v>1344278</v>
+        <v>1239470</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>97</v>
@@ -3358,7 +3358,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3373,7 +3373,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3388,7 +3388,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1372132</v>
+        <v>1265673</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3411,46 +3411,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>16737</v>
+        <v>16503</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>23933</v>
+        <v>21681</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>40670</v>
+        <v>38184</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,46 +3462,46 @@
         <v>1976</v>
       </c>
       <c r="D8" s="7">
-        <v>2145285</v>
+        <v>2273824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>2885</v>
       </c>
       <c r="I8" s="7">
-        <v>2224863</v>
+        <v>2215464</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>4861</v>
       </c>
       <c r="N8" s="7">
-        <v>4370147</v>
+        <v>4489288</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3513,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3528,7 +3528,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3543,7 +3543,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3566,46 +3566,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>9512</v>
+        <v>9130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>11845</v>
+        <v>11228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>21357</v>
+        <v>20358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,46 +3617,46 @@
         <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>663527</v>
+        <v>637493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>986</v>
       </c>
       <c r="I11" s="7">
-        <v>702041</v>
+        <v>649235</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1658</v>
       </c>
       <c r="N11" s="7">
-        <v>1365569</v>
+        <v>1286728</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3668,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3683,7 +3683,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3698,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3721,28 +3721,28 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>35992</v>
+        <v>35657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>53889</v>
+        <v>49088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>135</v>
@@ -3751,7 +3751,7 @@
         <v>122</v>
       </c>
       <c r="N13" s="7">
-        <v>89880</v>
+        <v>84745</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>136</v>
@@ -3760,7 +3760,7 @@
         <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,43 +3772,43 @@
         <v>3326</v>
       </c>
       <c r="D14" s="7">
-        <v>3339632</v>
+        <v>3415235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>5262</v>
       </c>
       <c r="I14" s="7">
-        <v>3740361</v>
+        <v>3600251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>8588</v>
       </c>
       <c r="N14" s="7">
-        <v>7079994</v>
+        <v>7015487</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>143</v>
@@ -3823,7 +3823,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3838,7 +3838,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794250</v>
+        <v>3649339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3853,7 +3853,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169874</v>
+        <v>7100232</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
